--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/亏损企业亏损总额.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/亏损企业亏损总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,367 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.50989</v>
-      </c>
-      <c r="C2" t="n">
-        <v>24.81441</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.69753</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>3.20867</v>
-      </c>
-      <c r="G2" t="n">
-        <v>28.74172</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.52004</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.67937</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.93262</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10.27243</v>
-      </c>
-      <c r="L2" t="n">
-        <v>322.91767</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.14396</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.14533</v>
-      </c>
-      <c r="O2" t="n">
-        <v>10.01691</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5.55649</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.04478</v>
-      </c>
-      <c r="R2" t="n">
-        <v>7.00742</v>
-      </c>
-      <c r="S2" t="n">
-        <v>6.1514</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>7.78035</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2904</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.95751</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.00045</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>23.72176</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>25.18962</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>20.34434</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.41401</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2.10559</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>14.31722</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.10509</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>9.95781</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15.46362</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>19.62093</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.14869</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>18.92791</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>14.47638</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>19.93238</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.71865</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.00199</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4.83191</v>
-      </c>
-      <c r="C3" t="n">
-        <v>20.09042</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.73258</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>3.61143</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34.94862</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.9582</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.96802</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.80215</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.21422</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.06083</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.43523</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.62952</v>
-      </c>
-      <c r="O3" t="n">
-        <v>11.00568</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.34368</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.05597</v>
-      </c>
-      <c r="R3" t="n">
-        <v>9.085369999999999</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.10632</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>5.01319</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.24628</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.747</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>16.76817</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>59.07136</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>20.94977</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7.08751</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.59847</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>17.33104</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.05173</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8.597939999999999</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>12.65935</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17.98791</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.38331</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>17.23934</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>14.86992</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>17.08979</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.54857</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.00086</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.61392</v>
-      </c>
-      <c r="C4" t="n">
-        <v>21.18154</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.56473</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>3.56139</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22.17733</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.98564</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13.80927</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.84073</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12.78524</v>
-      </c>
-      <c r="L4" t="n">
-        <v>364.08022</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.60292</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.17957</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10.76738</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.02572</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.01843</v>
-      </c>
-      <c r="R4" t="n">
-        <v>10.39423</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6.5343</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>3.54869</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.23011</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.21574</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.07789</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7.4951</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>73.12371</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21.71503</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.50821</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1.87793</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>17.14186</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.12593</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>5.30464</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>14.66282</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>18.73375</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.4988</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>25.94484</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>14.42034</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>14.6499</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2.69571</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.00388</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
